--- a/DataParamertization/src/TestSuite/Test.xlsx
+++ b/DataParamertization/src/TestSuite/Test.xlsx
@@ -64,50 +64,320 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>0.0</v>
+      </c>
       <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="C3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2.0</v>
+      </c>
       <c r="D4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>3.0</v>
+      </c>
       <c r="E5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>4.0</v>
+      </c>
       <c r="F6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>5.0</v>
+      </c>
       <c r="G7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>6.0</v>
+      </c>
       <c r="H8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>7.0</v>
+      </c>
       <c r="I9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>8.0</v>
+      </c>
       <c r="J10" t="n" s="0">
         <v>9.0</v>
       </c>
